--- a/medicine/Enfance/Ib_Spang_Olsen/Ib_Spang_Olsen.xlsx
+++ b/medicine/Enfance/Ib_Spang_Olsen/Ib_Spang_Olsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ib Spang Olsen (11 juin 1921 - 15 janvier 2012) est un illustrateur et auteur danois de littérature d'enfance et de jeunesse. Il est lauréat du prestigieux prix international, le Prix Hans-Christian-Andersen, catégorie Illustration, en 1972.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Copenhague, il commence par dessiner pour la presse avant de s'inscrire à l'école d'art de Copenhague.
 Ses dessins sont connus pour leur recours à différentes techniques et leur caractère parfois expérimental.
@@ -543,7 +557,9 @@
           <t>Œuvre traduite en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Garçon de la Lune (Drengen i manen), Circonflexe, 1995.</t>
         </is>
@@ -573,15 +589,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1966 : (international) « Honor List »[1], de l' IBBY, pour Blaesten
-1967 :  « Mention d'honneur » à la  Biennale d'illustration de Bratislava (BIB)[2] pour Kiosken på torvet
-1968 : (international) « Hightly Commended Illustrators »[1] , par l' IBBY, pour l'ensemble de son œuvre
-1968 : (international) « Honor List »[1], de l' IBBY, pour Mosekonens bryg
-1970 : (international) « Hightly Commended Illustrators »[1], par l' IBBY, pour l'ensemble de son œuvre
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1966 : (international) « Honor List », de l' IBBY, pour Blaesten
+1967 :  « Mention d'honneur » à la  Biennale d'illustration de Bratislava (BIB) pour Kiosken på torvet
+1968 : (international) « Hightly Commended Illustrators » , par l' IBBY, pour l'ensemble de son œuvre
+1968 : (international) « Honor List », de l' IBBY, pour Mosekonens bryg
+1970 : (international) « Hightly Commended Illustrators », par l' IBBY, pour l'ensemble de son œuvre
 1972 : Prix Hans-Christian-Andersen, catégorie Illustration
-1975 :  « Mention d'honneur » à la  Biennale d'illustration de Bratislava (BIB)[2] pour Gamle fru Glad, og, Hendes hund
+1975 :  « Mention d'honneur » à la  Biennale d'illustration de Bratislava (BIB) pour Gamle fru Glad, og, Hendes hund
 De plus, Ib Spang Olsen figure dans le Canon de la culture danoise, dans la catégorie Canon des enfants, pour Halfdans ABC, qu'il a réalisé en 1967 avec Halfdan Rasmussen.
 </t>
         </is>
